--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,69 +40,48 @@
     <t>name</t>
   </si>
   <si>
-    <t>kills</t>
-  </si>
-  <si>
     <t>killed</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>sc</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>shortage</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
@@ -112,6 +91,12 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
@@ -121,94 +106,91 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>good</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -566,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
         <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,10 +620,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -656,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K8">
-        <v>0.85</v>
+        <v>0.8203125</v>
       </c>
       <c r="L8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="M8">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7207792207792207</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C10">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K11">
-        <v>0.8235294117647058</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1067,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5333333333333333</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1117,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4375</v>
+        <v>0.1705426356589147</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9</v>
+        <v>428</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1167,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3928571428571428</v>
+        <v>0.09395973154362416</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1231,489 +1213,297 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.6971830985915493</v>
+      </c>
+      <c r="L15">
+        <v>99</v>
+      </c>
+      <c r="M15">
+        <v>99</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L17">
+        <v>13</v>
+      </c>
+      <c r="M17">
+        <v>13</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.6792452830188679</v>
+      </c>
+      <c r="L18">
+        <v>72</v>
+      </c>
+      <c r="M18">
+        <v>72</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.6625</v>
+      </c>
+      <c r="L19">
+        <v>106</v>
+      </c>
+      <c r="M19">
+        <v>106</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="L20">
+        <v>14</v>
+      </c>
+      <c r="M20">
+        <v>14</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21">
+        <v>0.6041666666666666</v>
+      </c>
+      <c r="L21">
+        <v>29</v>
+      </c>
+      <c r="M21">
+        <v>29</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <v>0.574468085106383</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="M22">
+        <v>27</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1" t="s">
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K15">
-        <v>0.7307692307692307</v>
-      </c>
-      <c r="L15">
-        <v>19</v>
-      </c>
-      <c r="M15">
-        <v>19</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C16">
-        <v>8</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>16</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K23">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L23">
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>28</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K16">
-        <v>0.7241379310344828</v>
-      </c>
-      <c r="L16">
-        <v>21</v>
-      </c>
-      <c r="M16">
-        <v>21</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2918454935622318</v>
-      </c>
-      <c r="C17">
-        <v>68</v>
-      </c>
-      <c r="D17">
-        <v>68</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>165</v>
-      </c>
-      <c r="J17" s="1" t="s">
+      <c r="K24">
+        <v>0.5425531914893617</v>
+      </c>
+      <c r="L24">
+        <v>51</v>
+      </c>
+      <c r="M24">
+        <v>51</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>43</v>
       </c>
-      <c r="K17">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
-      <c r="M17">
-        <v>12</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>22</v>
-      </c>
-      <c r="J18" s="1" t="s">
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.5238095238095238</v>
+      </c>
+      <c r="L25">
+        <v>33</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K18">
-        <v>0.68</v>
-      </c>
-      <c r="L18">
-        <v>17</v>
-      </c>
-      <c r="M18">
-        <v>17</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19">
-        <v>18</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>68</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.6712328767123288</v>
-      </c>
-      <c r="L19">
-        <v>49</v>
-      </c>
-      <c r="M19">
-        <v>49</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1842105263157895</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>31</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L20">
-        <v>26</v>
-      </c>
-      <c r="M20">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.15</v>
-      </c>
-      <c r="C21">
-        <v>12</v>
-      </c>
-      <c r="D21">
-        <v>12</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>68</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21">
-        <v>0.6470588235294118</v>
-      </c>
-      <c r="L21">
-        <v>11</v>
-      </c>
-      <c r="M21">
-        <v>11</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.08181818181818182</v>
-      </c>
-      <c r="C22">
-        <v>9</v>
-      </c>
-      <c r="D22">
-        <v>9</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>101</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="L22">
-        <v>7</v>
-      </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="M23">
-        <v>20</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L24">
-        <v>7</v>
-      </c>
-      <c r="M24">
-        <v>7</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L25">
-        <v>16</v>
-      </c>
-      <c r="M25">
-        <v>16</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="K26">
-        <v>0.5600000000000001</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L26">
         <v>14</v>
@@ -1731,21 +1521,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>0.5454545454545454</v>
+        <v>0.4882506527415144</v>
       </c>
       <c r="L27">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="M27">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1757,21 +1547,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>0.5416666666666666</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1783,21 +1573,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>0.5384615384615384</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L29">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1809,21 +1599,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>0.5069444444444444</v>
+        <v>0.423728813559322</v>
       </c>
       <c r="L30">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="M30">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1835,48 +1625,48 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.390625</v>
       </c>
       <c r="L31">
+        <v>25</v>
+      </c>
+      <c r="M31">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>0.375</v>
+      </c>
+      <c r="L32">
         <v>15</v>
       </c>
-      <c r="M31">
+      <c r="M32">
         <v>15</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K32">
-        <v>0.4883720930232558</v>
-      </c>
-      <c r="L32">
-        <v>63</v>
-      </c>
-      <c r="M32">
-        <v>63</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -1887,21 +1677,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>66</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4741784037558686</v>
+        <v>0.3692307692307693</v>
       </c>
       <c r="L33">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1913,21 +1703,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>112</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1939,21 +1729,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1965,21 +1755,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.358695652173913</v>
+        <v>0.301255230125523</v>
       </c>
       <c r="L36">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="M36">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1991,21 +1781,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>59</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.35</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L37">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2017,21 +1807,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.01707317073170732</v>
+        <v>0.01901565995525727</v>
       </c>
       <c r="L38">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2043,7 +1833,59 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>403</v>
+        <v>877</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39">
+        <v>0.00979934671021932</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39">
+        <v>21</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K40">
+        <v>0.004829362524146813</v>
+      </c>
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>16</v>
+      </c>
+      <c r="N40">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O40">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3091</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,139 +49,154 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>sc</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>special</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>friends</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>important</t>
   </si>
   <si>
     <t>store</t>
@@ -548,7 +563,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,7 +571,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J1" t="s">
         <v>28</v>
@@ -638,16 +653,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +674,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,16 +703,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -709,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +750,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +782,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6">
-        <v>0.8787878787878788</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L6">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M6">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +832,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5856164383561644</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7">
         <v>0.8660714285714286</v>
@@ -867,13 +882,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5833333333333334</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +900,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K8">
-        <v>0.8203125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L8">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="M8">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +932,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5769230769230769</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5172413793103449</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10">
-        <v>0.7931034482758621</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1032,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2266666666666667</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K11">
-        <v>0.7926829268292683</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L11">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="M11">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2063492063492063</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1100,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12">
-        <v>0.7583333333333333</v>
+        <v>0.7890625</v>
       </c>
       <c r="L12">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="M12">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1132,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1705426356589147</v>
+        <v>0.1724806201550388</v>
       </c>
       <c r="C13">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K13">
-        <v>0.7222222222222222</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,64 +1182,88 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.09395973154362416</v>
+        <v>0.1073825503355705</v>
       </c>
       <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>133</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>0.75</v>
+      </c>
+      <c r="L14">
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>27</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.06746031746031746</v>
+      </c>
+      <c r="C15">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>235</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L15">
         <v>14</v>
       </c>
-      <c r="D14">
+      <c r="M15">
         <v>14</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>135</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L14">
-        <v>36</v>
-      </c>
-      <c r="M14">
-        <v>36</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.6971830985915493</v>
-      </c>
-      <c r="L15">
-        <v>99</v>
-      </c>
-      <c r="M15">
-        <v>99</v>
-      </c>
       <c r="N15">
         <v>1</v>
       </c>
@@ -1235,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
-        <v>0.6944444444444444</v>
+        <v>0.725</v>
       </c>
       <c r="L16">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="M16">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1261,21 +1300,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K17">
-        <v>0.6842105263157895</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1287,21 +1326,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.6792452830188679</v>
+        <v>0.6971830985915493</v>
       </c>
       <c r="L18">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="M18">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1313,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K19">
-        <v>0.6625</v>
+        <v>0.69375</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1339,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.6363636363636364</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L20">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="M20">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1365,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
-        <v>0.6041666666666666</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1391,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>0.574468085106383</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1417,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>0.5600000000000001</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L23">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="M23">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1443,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>0.5425531914893617</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L24">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1469,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
-        <v>0.5238095238095238</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1495,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>0.5185185185185185</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1521,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>0.4882506527415144</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L27">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="M27">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1547,21 +1586,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>196</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>0.4558823529411765</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1573,21 +1612,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>185</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K29">
-        <v>0.4269662921348314</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1599,21 +1638,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>0.423728813559322</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L30">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1625,21 +1664,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>170</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31">
-        <v>0.390625</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1651,21 +1690,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K32">
-        <v>0.375</v>
+        <v>0.4960835509138381</v>
       </c>
       <c r="L32">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="M32">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1677,21 +1716,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>0.3692307692307693</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L33">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="M33">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1703,21 +1742,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34">
-        <v>0.3561643835616438</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1729,21 +1768,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>47</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>0.3076923076923077</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L35">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M35">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1755,21 +1794,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K36">
-        <v>0.301255230125523</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L36">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1781,21 +1820,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>167</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K37">
-        <v>0.2888888888888889</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1807,21 +1846,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K38">
-        <v>0.01901565995525727</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1833,21 +1872,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>877</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39">
-        <v>0.00979934671021932</v>
+        <v>0.297071129707113</v>
       </c>
       <c r="L39">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1859,33 +1898,137 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>2122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40">
-        <v>0.004829362524146813</v>
+        <v>0.265625</v>
       </c>
       <c r="L40">
+        <v>17</v>
+      </c>
+      <c r="M40">
+        <v>17</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K41">
+        <v>0.2461538461538462</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>16</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K42">
+        <v>0.0145413870246085</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43">
+        <v>0.006535947712418301</v>
+      </c>
+      <c r="L43">
+        <v>14</v>
+      </c>
+      <c r="M43">
         <v>15</v>
       </c>
-      <c r="M40">
-        <v>16</v>
-      </c>
-      <c r="N40">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O40">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P40" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q40">
-        <v>3091</v>
+      <c r="N43">
+        <v>0.93</v>
+      </c>
+      <c r="O43">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K44">
+        <v>0.00482780817508851</v>
+      </c>
+      <c r="L44">
+        <v>15</v>
+      </c>
+      <c r="M44">
+        <v>15</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>3092</v>
       </c>
     </row>
   </sheetData>
